--- a/evaluation/Zero-shot_evaluation.xlsx
+++ b/evaluation/Zero-shot_evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katarina\python\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28839ACF-15E0-467E-B7EE-886CBD579B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2536AE-18E3-4E3B-9EA0-E7881D42A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2484,25 +2484,25 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>2. Is the answer to the question correct?</t>
-  </si>
-  <si>
-    <t>1. How unique is the question?</t>
-  </si>
-  <si>
-    <t>3. How well does it relate to the topic?</t>
-  </si>
-  <si>
-    <t>4. Does the level of the topic align with the content of the question?</t>
-  </si>
-  <si>
-    <t>5. Does the type of question align with the one stated?</t>
-  </si>
-  <si>
     <t>6. Are all the topics represented (number of questions)?</t>
   </si>
   <si>
     <t>7. Personal score for this level generation (0-10) (please answer after all the questions in the empty row).</t>
+  </si>
+  <si>
+    <t>1. Is the question unique?</t>
+  </si>
+  <si>
+    <t>2.  Is the answer correct?</t>
+  </si>
+  <si>
+    <t>3. Does the question relate well to the topic?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Does the difficulty level match the expected CEFR level? </t>
+  </si>
+  <si>
+    <t>5. Does the question type match the specified type?</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +2823,7 @@
   <dimension ref="A1:M465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2859,25 +2859,25 @@
         <v>818</v>
       </c>
       <c r="G1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J1" t="s">
+        <v>824</v>
+      </c>
+      <c r="K1" t="s">
+        <v>825</v>
+      </c>
+      <c r="L1" t="s">
+        <v>819</v>
+      </c>
+      <c r="M1" t="s">
         <v>820</v>
-      </c>
-      <c r="H1" t="s">
-        <v>819</v>
-      </c>
-      <c r="I1" t="s">
-        <v>821</v>
-      </c>
-      <c r="J1" t="s">
-        <v>822</v>
-      </c>
-      <c r="K1" t="s">
-        <v>823</v>
-      </c>
-      <c r="L1" t="s">
-        <v>824</v>
-      </c>
-      <c r="M1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
